--- a/urls.xlsx
+++ b/urls.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\_Max\PyCharmProjects\python_django_team5\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1092D033-4F26-4B17-A778-3B51567ED5C3}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="630" yWindow="540" windowWidth="22695" windowHeight="13485"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24669" windowHeight="9309" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="268">
   <si>
     <t>Раздел</t>
   </si>
@@ -64,88 +70,88 @@
     <t xml:space="preserve"> Настройки</t>
   </si>
   <si>
+    <t>Очистка всего кеша сайта</t>
+  </si>
+  <si>
+    <t>GET</t>
+  </si>
+  <si>
+    <t>/settings-admin/clear-all-cache/</t>
+  </si>
+  <si>
+    <t>settings-polls</t>
+  </si>
+  <si>
+    <t>clear-all-cache</t>
+  </si>
+  <si>
+    <t>Очистка кеша отзывов о товарах</t>
+  </si>
+  <si>
+    <t>/settings-admin/clear-review-cache/</t>
+  </si>
+  <si>
+    <t>clear-review-cache</t>
+  </si>
+  <si>
+    <t>Очистка кэша продуктов и категорий каталога</t>
+  </si>
+  <si>
+    <t>/settings-admin/clear_catalog_cache/</t>
+  </si>
+  <si>
+    <t>clear-catalog-cache</t>
+  </si>
+  <si>
+    <t>Очистка кеша баннеров</t>
+  </si>
+  <si>
+    <t>/settings-admin/clear_banner_cache/</t>
+  </si>
+  <si>
+    <t>clear-banner-cache</t>
+  </si>
+  <si>
+    <t>Очистка кеша детальных страниц товаров (кроме отзывов)</t>
+  </si>
+  <si>
+    <t>/settings-admin/clear_detail_products_cache/</t>
+  </si>
+  <si>
+    <t>clear-detail-products-cache</t>
+  </si>
+  <si>
+    <t>Очистка кеша продавцов</t>
+  </si>
+  <si>
+    <t>/settings-admin/clear_sellers_cache/</t>
+  </si>
+  <si>
+    <t>clear-sellers-cache</t>
+  </si>
+  <si>
+    <t>Очистка кеша пользователей</t>
+  </si>
+  <si>
+    <t>/settings-admin/clear_users_cache/</t>
+  </si>
+  <si>
+    <t>clear-users-cache</t>
+  </si>
+  <si>
     <t>Страница настроек сайта в админ-панели</t>
   </si>
   <si>
-    <t>GET</t>
-  </si>
-  <si>
     <t>/settings-admin/setup/</t>
   </si>
   <si>
     <t>admin-setup</t>
   </si>
   <si>
-    <t>Очистка всего кеша сайта</t>
-  </si>
-  <si>
-    <t>/setup-actions/clear-all-cache/</t>
-  </si>
-  <si>
-    <t>settings-polls</t>
-  </si>
-  <si>
-    <t>clear-all-cache</t>
-  </si>
-  <si>
-    <t>Очистка кеша отзывов о товарах</t>
-  </si>
-  <si>
-    <t>/setup-actions/clear-review-cache/</t>
-  </si>
-  <si>
-    <t>clear-review-cache</t>
-  </si>
-  <si>
-    <t>Очистка кэша продуктов и категорий каталога</t>
-  </si>
-  <si>
-    <t>/setup-actions/clear_catalog_cache/</t>
-  </si>
-  <si>
-    <t>clear-catalog-cache</t>
-  </si>
-  <si>
-    <t>Очистка кеша баннеров</t>
-  </si>
-  <si>
-    <t>/setup-actions/clear_banner_cache/</t>
-  </si>
-  <si>
-    <t>clear-banner-cache</t>
-  </si>
-  <si>
-    <t>Очистка кеша детальных страниц товаров (кроме отзывов)</t>
-  </si>
-  <si>
-    <t>/setup-actions/clear_detail_products_cache/</t>
-  </si>
-  <si>
-    <t>clear-detail-products-cache</t>
-  </si>
-  <si>
-    <t>Очистка кеша продавцов</t>
-  </si>
-  <si>
-    <t>/setup-actions/clear_sellers_cache/</t>
-  </si>
-  <si>
-    <t>clear-sellers-cache</t>
-  </si>
-  <si>
-    <t>Очистка кеша пользователей</t>
-  </si>
-  <si>
-    <t>/setup-actions/clear_users_cache/</t>
-  </si>
-  <si>
-    <t>clear-users-cache</t>
-  </si>
-  <si>
     <t>Представление ручного изменения товара из блока "Ограниченный тираж"</t>
   </si>
   <si>
-    <t>/setup-actions/update-limited-deal/</t>
+    <t>/settings-admin/update-limited-deal/</t>
   </si>
   <si>
     <t>manual-change-product</t>
@@ -154,7 +160,7 @@
     <t>Представление для продления времени следующего обновления товара из "Ограниченного тиража"</t>
   </si>
   <si>
-    <t>/setup-actions/update-expire/</t>
+    <t>/settings-admin/update-expire/</t>
   </si>
   <si>
     <t>manual-expire-change</t>
@@ -163,7 +169,7 @@
     <t>Представление для ручного ввода даты и времени следующего обновления товара из "Ограниченного тиража"</t>
   </si>
   <si>
-    <t>/setup-actions/set-end-time/</t>
+    <t>/settings-admin/set-end-time/</t>
   </si>
   <si>
     <t>set-end-time</t>
@@ -346,6 +352,9 @@
     <t>cart_add</t>
   </si>
   <si>
+    <t>cart_add_many</t>
+  </si>
+  <si>
     <t>Удаление позиции из корзины</t>
   </si>
   <si>
@@ -709,9 +718,6 @@
     <t>edit-store-product-discount</t>
   </si>
   <si>
-    <t xml:space="preserve"> РДобавление скидки на группу товаров</t>
-  </si>
-  <si>
     <t>Страница создания скидки на группу товаров</t>
   </si>
   <si>
@@ -815,12 +821,15 @@
   </si>
   <si>
     <t>discount-detail</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Добавление скидки на группу товаров</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -830,10 +839,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -857,6 +868,43 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -908,43 +956,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -954,32 +965,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -990,6 +1001,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1279,1733 +1293,1758 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H71"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" style="1"/>
-    <col min="3" max="3" width="40" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12" style="1" customWidth="1"/>
-    <col min="5" max="5" width="35.85546875" style="1" customWidth="1"/>
-    <col min="6" max="7" width="21.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="24.28515625" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="15.7109375" style="1"/>
+    <col min="1" max="1" width="16.3046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.61328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="55.3046875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.3046875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="29.69140625" style="1" customWidth="1"/>
+    <col min="6" max="7" width="24.53515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.23046875" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.23046875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:8" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="4"/>
-    </row>
-    <row r="3" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="H2" s="7"/>
+    </row>
+    <row r="3" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="D3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="7"/>
+    </row>
+    <row r="4" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="4"/>
-    </row>
-    <row r="4" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="G4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="7"/>
+    </row>
+    <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="4"/>
-    </row>
-    <row r="5" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="C5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="7"/>
+    </row>
+    <row r="6" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="C6" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="C7" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="7"/>
+    </row>
+    <row r="8" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" s="4"/>
-    </row>
-    <row r="8" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="C8" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="7"/>
+    </row>
+    <row r="9" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H8" s="4"/>
-    </row>
-    <row r="9" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="C9" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H9" s="4"/>
-    </row>
-    <row r="10" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="C10" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B11" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H10" s="4"/>
-    </row>
-    <row r="11" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="C11" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B12" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H11" s="4"/>
-    </row>
-    <row r="12" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="C12" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B13" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H12" s="4"/>
-    </row>
-    <row r="13" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="3" t="s">
+      <c r="D13" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F13" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" s="3" t="s">
+      <c r="F13" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="H13" s="4"/>
-    </row>
-    <row r="14" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="3" t="s">
+      <c r="D14" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="H14" s="4"/>
-    </row>
-    <row r="15" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" s="3" t="s">
+      <c r="D15" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="H15" s="4"/>
-    </row>
-    <row r="16" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" s="3" t="s">
+      <c r="D16" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G16" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="H16" s="4"/>
-    </row>
-    <row r="17" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="G17" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="H17" s="4"/>
-    </row>
-    <row r="18" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="H17" s="7"/>
+    </row>
+    <row r="18" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E18" s="3" t="s">
+      <c r="D18" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="G18" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="H18" s="4"/>
-    </row>
-    <row r="19" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="H18" s="7"/>
+    </row>
+    <row r="19" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E19" s="3" t="s">
+      <c r="D19" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="G19" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="H19" s="4"/>
-    </row>
-    <row r="20" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="H19" s="7"/>
+    </row>
+    <row r="20" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E20" s="3" t="s">
+      <c r="D20" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="G20" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="H20" s="4"/>
-    </row>
-    <row r="21" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="H20" s="7"/>
+    </row>
+    <row r="21" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E21" s="3" t="s">
+      <c r="D21" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="G21" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="H21" s="4"/>
-    </row>
-    <row r="22" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+      <c r="H21" s="7"/>
+    </row>
+    <row r="22" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="G22" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="H22" s="4"/>
-    </row>
-    <row r="23" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+      <c r="H22" s="7"/>
+    </row>
+    <row r="23" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F23" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="G23" s="3" t="s">
+      <c r="G23" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="H23" s="4"/>
-    </row>
-    <row r="24" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+      <c r="H23" s="7"/>
+    </row>
+    <row r="24" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24" s="3" t="s">
+      <c r="D24" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F24" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="G24" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="H24" s="4"/>
-    </row>
-    <row r="25" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+      <c r="H24" s="7"/>
+    </row>
+    <row r="25" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E25" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="F25" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="G25" s="3" t="s">
+      <c r="G25" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="H25" s="4"/>
-    </row>
-    <row r="26" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+      <c r="H25" s="7"/>
+    </row>
+    <row r="26" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E26" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="F26" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="G26" s="3" t="s">
+      <c r="G26" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="H26" s="4"/>
-    </row>
-    <row r="27" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+      <c r="H26" s="7"/>
+    </row>
+    <row r="27" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E27" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="F27" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="G27" s="3" t="s">
+      <c r="G27" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="H27" s="4"/>
-    </row>
-    <row r="28" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+      <c r="H27" s="7"/>
+    </row>
+    <row r="28" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="D28" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E28" s="3" t="s">
+      <c r="D28" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="F28" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="G28" s="3" t="s">
+      <c r="G28" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="H28" s="4"/>
-    </row>
-    <row r="29" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+      <c r="H28" s="7"/>
+    </row>
+    <row r="29" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="G29" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E29" s="3" t="s">
+      <c r="H29" s="7"/>
+    </row>
+    <row r="30" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C30" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="D30" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="F30" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="G29" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="H29" s="4"/>
-    </row>
-    <row r="30" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+      <c r="G30" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="H30" s="7"/>
+    </row>
+    <row r="31" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B31" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="C30" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E30" s="3" t="s">
+      <c r="C31" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="D31" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F31" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="G30" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="H30" s="4"/>
-    </row>
-    <row r="31" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+      <c r="G31" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="H31" s="7"/>
+    </row>
+    <row r="32" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C31" s="3" t="s">
+      <c r="B32" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="C32" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D32" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E31" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="F31" s="3" t="s">
+      <c r="E32" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="F32" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="G31" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="H31" s="4"/>
-    </row>
-    <row r="32" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+      <c r="G32" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="H32" s="7"/>
+    </row>
+    <row r="33" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D32" s="3" t="s">
+      <c r="B33" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D33" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="F32" s="3" t="s">
+      <c r="E33" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="F33" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="H32" s="4"/>
-    </row>
-    <row r="33" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
+      <c r="G33" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="H33" s="7"/>
+    </row>
+    <row r="34" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="D33" s="3" t="s">
+      <c r="B34" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D34" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E33" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="F33" s="3" t="s">
+      <c r="E34" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="F34" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="G33" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="H33" s="4"/>
-    </row>
-    <row r="34" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
+      <c r="G34" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="H34" s="7"/>
+    </row>
+    <row r="35" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B34" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="D34" s="3" t="s">
+      <c r="B35" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D35" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E34" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="F34" s="3" t="s">
+      <c r="E35" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="F35" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="G34" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="H34" s="4"/>
-    </row>
-    <row r="35" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
+      <c r="G35" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="H35" s="7"/>
+    </row>
+    <row r="36" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B35" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E35" s="3" t="s">
+      <c r="B36" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C36" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="F35" s="3" t="s">
+      <c r="D36" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="F36" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="G35" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="H35" s="4"/>
-    </row>
-    <row r="36" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
+      <c r="G36" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="H36" s="7"/>
+    </row>
+    <row r="37" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B37" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C36" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E36" s="3" t="s">
+      <c r="C37" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="F36" s="3" t="s">
+      <c r="D37" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="F37" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="G36" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="H36" s="4"/>
-    </row>
-    <row r="37" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
+      <c r="G37" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="H37" s="7"/>
+    </row>
+    <row r="38" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B38" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C37" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D37" s="3" t="s">
+      <c r="C38" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="D38" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E37" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="F37" s="3" t="s">
+      <c r="E38" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="F38" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="G37" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="H37" s="4"/>
-    </row>
-    <row r="38" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
+      <c r="G38" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="H38" s="7"/>
+    </row>
+    <row r="39" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B39" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C38" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="D38" s="3" t="s">
+      <c r="C39" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D39" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E38" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="F38" s="3" t="s">
+      <c r="E39" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="F39" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="G38" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="H38" s="4"/>
-    </row>
-    <row r="39" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
+      <c r="G39" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="H39" s="7"/>
+    </row>
+    <row r="40" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B40" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C39" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E39" s="3" t="s">
+      <c r="C40" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="F39" s="3" t="s">
+      <c r="D40" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="F40" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="G39" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="H39" s="4"/>
-    </row>
-    <row r="40" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
+      <c r="G40" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="H40" s="7"/>
+    </row>
+    <row r="41" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B41" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C40" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E40" s="3" t="s">
+      <c r="C41" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="F40" s="3" t="s">
+      <c r="D41" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="F41" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="G40" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="H40" s="4"/>
-    </row>
-    <row r="41" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
+      <c r="G41" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="H41" s="7"/>
+    </row>
+    <row r="42" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B41" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="C41" s="3" t="s">
+      <c r="B42" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E41" s="3" t="s">
+      <c r="C42" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="F41" s="3" t="s">
+      <c r="D42" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F42" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="H41" s="4"/>
-    </row>
-    <row r="42" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
+      <c r="G42" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="H42" s="7"/>
+    </row>
+    <row r="43" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B42" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E42" s="3" t="s">
+      <c r="B43" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C43" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="F42" s="3" t="s">
+      <c r="D43" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="F43" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="H42" s="4"/>
-    </row>
-    <row r="43" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
+      <c r="G43" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="H43" s="7"/>
+    </row>
+    <row r="44" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B43" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E43" s="3" t="s">
+      <c r="B44" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C44" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="F43" s="3" t="s">
+      <c r="D44" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="F44" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="H43" s="4"/>
-    </row>
-    <row r="44" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
+      <c r="G44" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="H44" s="7"/>
+    </row>
+    <row r="45" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B44" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C44" s="3" t="s">
+      <c r="B45" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E44" s="3" t="s">
+      <c r="C45" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="F44" s="3" t="s">
+      <c r="D45" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="F45" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="H44" s="4"/>
-    </row>
-    <row r="45" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
+      <c r="G45" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="H45" s="7"/>
+    </row>
+    <row r="46" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B45" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="C45" s="3" t="s">
+      <c r="B46" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E45" s="3" t="s">
+      <c r="C46" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="F45" s="3" t="s">
+      <c r="D46" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="F46" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="H45" s="4"/>
-    </row>
-    <row r="46" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
+      <c r="G46" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="H46" s="7"/>
+    </row>
+    <row r="47" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B46" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="C46" s="3" t="s">
+      <c r="B47" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E46" s="3" t="s">
+      <c r="C47" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="F46" s="3" t="s">
+      <c r="D47" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="F47" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="H46" s="4"/>
-    </row>
-    <row r="47" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
+      <c r="G47" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="H47" s="7"/>
+    </row>
+    <row r="48" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B47" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="C47" s="3" t="s">
+      <c r="B48" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E47" s="3" t="s">
+      <c r="C48" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="F47" s="3" t="s">
+      <c r="D48" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="F48" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="H47" s="4"/>
-    </row>
-    <row r="48" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
+      <c r="G48" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="H48" s="7"/>
+    </row>
+    <row r="49" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="B49" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="C49" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="D49" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="F48" s="3" t="s">
+      <c r="E49" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="G48" s="3" t="s">
+      <c r="F49" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="H48" s="4"/>
-    </row>
-    <row r="49" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="B49" s="3" t="s">
+      <c r="G49" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="H49" s="7"/>
+    </row>
+    <row r="50" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A50" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B50" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="C50" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="D50" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="G49" s="3" t="s">
+      <c r="E50" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="H49" s="4"/>
-    </row>
-    <row r="50" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="B50" s="3" t="s">
+      <c r="F50" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="G50" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="H50" s="7"/>
+    </row>
+    <row r="51" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B51" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="D50" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E50" s="3" t="s">
+      <c r="C51" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="F50" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="G50" s="3" t="s">
+      <c r="D51" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E51" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="H50" s="4"/>
-    </row>
-    <row r="51" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="B51" s="3" t="s">
+      <c r="F51" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="G51" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="H51" s="7"/>
+    </row>
+    <row r="52" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B52" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="C52" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="D52" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E51" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="F51" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="G51" s="3" t="s">
+      <c r="E52" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="H51" s="4"/>
-    </row>
-    <row r="52" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="C52" s="3" t="s">
+      <c r="F52" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="G52" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E52" s="3" t="s">
+      <c r="H52" s="7"/>
+    </row>
+    <row r="53" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="C53" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="G52" s="3" t="s">
+      <c r="D53" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E53" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="H52" s="4"/>
-    </row>
-    <row r="53" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="C53" s="3" t="s">
+      <c r="F53" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="G53" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="D53" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E53" s="3" t="s">
+      <c r="H53" s="7"/>
+    </row>
+    <row r="54" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="C54" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="F53" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="G53" s="3" t="s">
+      <c r="D54" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E54" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="H53" s="4"/>
-    </row>
-    <row r="54" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="C54" s="3" t="s">
+      <c r="F54" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="G54" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="D54" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E54" s="3" t="s">
+      <c r="H54" s="7"/>
+    </row>
+    <row r="55" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A55" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="C55" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="F54" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="G54" s="3" t="s">
+      <c r="D55" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E55" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="H54" s="4"/>
-    </row>
-    <row r="55" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="B55" s="3" t="s">
+      <c r="F55" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="G55" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="H55" s="7"/>
+    </row>
+    <row r="56" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A56" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B56" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="D55" s="3" t="s">
+      <c r="C56" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="D56" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E55" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="F55" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="G55" s="3" t="s">
+      <c r="E56" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="H55" s="4"/>
-    </row>
-    <row r="56" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="B56" s="3" t="s">
+      <c r="F56" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="G56" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="H56" s="7"/>
+    </row>
+    <row r="57" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B57" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="D56" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E56" s="3" t="s">
+      <c r="C57" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="F56" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="G56" s="3" t="s">
+      <c r="D57" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E57" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="H56" s="4"/>
-    </row>
-    <row r="57" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="B57" s="3" t="s">
+      <c r="F57" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="G57" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="H57" s="7"/>
+    </row>
+    <row r="58" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B58" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E57" s="3" t="s">
+      <c r="C58" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="G57" s="3" t="s">
+      <c r="D58" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E58" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="H57" s="4"/>
-    </row>
-    <row r="58" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="B58" s="3" t="s">
+      <c r="F58" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="G58" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="H58" s="7"/>
+    </row>
+    <row r="59" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A59" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B59" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E58" s="3" t="s">
+      <c r="C59" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="G58" s="3" t="s">
+      <c r="D59" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E59" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="H58" s="4"/>
-    </row>
-    <row r="59" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="B59" s="3" t="s">
+      <c r="F59" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="G59" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="H59" s="7"/>
+    </row>
+    <row r="60" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A60" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B60" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="D59" s="3" t="s">
+      <c r="C60" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="D60" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="G59" s="3" t="s">
+      <c r="E60" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="H59" s="4"/>
-    </row>
-    <row r="60" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="B60" s="3" t="s">
+      <c r="F60" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="G60" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="H60" s="7"/>
+    </row>
+    <row r="61" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A61" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B61" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="D60" s="3" t="s">
+      <c r="C61" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="D61" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E60" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="G60" s="3" t="s">
+      <c r="E61" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="H60" s="4"/>
-    </row>
-    <row r="61" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="C61" s="3" t="s">
+      <c r="F61" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="G61" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="D61" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E61" s="3" t="s">
+      <c r="H61" s="7"/>
+    </row>
+    <row r="62" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A62" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="C62" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="F61" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="G61" s="3" t="s">
+      <c r="D62" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E62" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="H61" s="4"/>
-    </row>
-    <row r="62" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="B62" s="3" t="s">
+      <c r="F62" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="G62" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="C62" s="3" t="s">
+      <c r="H62" s="7"/>
+    </row>
+    <row r="63" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A63" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B63" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="D62" s="3" t="s">
+      <c r="C63" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="D63" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="G62" s="3" t="s">
+      <c r="E63" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="H62" s="4"/>
-    </row>
-    <row r="63" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="B63" s="3" t="s">
+      <c r="F63" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="G63" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="H63" s="7"/>
+    </row>
+    <row r="64" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A64" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="C64" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="D63" s="3" t="s">
+      <c r="D64" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E63" s="3" t="s">
+      <c r="E64" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="F63" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="G63" s="3" t="s">
+      <c r="F64" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="G64" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="H63" s="4"/>
-    </row>
-    <row r="64" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="C64" s="3" t="s">
+      <c r="H64" s="7"/>
+    </row>
+    <row r="65" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A65" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="C65" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="D64" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E64" s="3" t="s">
+      <c r="D65" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E65" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="F64" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="G64" s="3" t="s">
+      <c r="F65" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="G65" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="H64" s="4"/>
-    </row>
-    <row r="65" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="B65" s="3" t="s">
+      <c r="H65" s="7"/>
+    </row>
+    <row r="66" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A66" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B66" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="C66" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="D65" s="3" t="s">
+      <c r="D66" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E65" s="3" t="s">
+      <c r="E66" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="F65" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="G65" s="3" t="s">
+      <c r="F66" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="G66" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="H65" s="4"/>
-    </row>
-    <row r="66" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="B66" s="3" t="s">
+      <c r="H66" s="7"/>
+    </row>
+    <row r="67" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A67" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B67" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="C66" s="3" t="s">
+      <c r="C67" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="D66" s="3" t="s">
+      <c r="D67" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E66" s="3" t="s">
+      <c r="E67" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="F66" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="G66" s="3" t="s">
+      <c r="F67" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="G67" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="H66" s="4"/>
-    </row>
-    <row r="67" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="C67" s="3" t="s">
+      <c r="H67" s="7"/>
+    </row>
+    <row r="68" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A68" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="C68" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="D67" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E67" s="3" t="s">
+      <c r="D68" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E68" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="F67" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="G67" s="3" t="s">
+      <c r="F68" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="G68" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="H67" s="4"/>
-    </row>
-    <row r="68" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="B68" s="3" t="s">
+      <c r="H68" s="7"/>
+    </row>
+    <row r="69" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A69" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B69" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="C68" s="3" t="s">
+      <c r="C69" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="D68" s="3" t="s">
+      <c r="D69" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E68" s="3" t="s">
+      <c r="E69" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="F68" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="G68" s="3" t="s">
+      <c r="F69" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="G69" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="H68" s="4"/>
-    </row>
-    <row r="69" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="B69" s="3" t="s">
+      <c r="H69" s="7"/>
+    </row>
+    <row r="70" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A70" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B70" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="C69" s="3" t="s">
+      <c r="C70" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="D69" s="3" t="s">
+      <c r="D70" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E69" s="3" t="s">
+      <c r="E70" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="F69" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="G69" s="3" t="s">
+      <c r="F70" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="G70" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="H69" s="4"/>
-    </row>
-    <row r="70" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="F70" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="G70" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="H70" s="4"/>
-    </row>
-    <row r="71" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H70" s="7"/>
+    </row>
+    <row r="71" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A71" s="5" t="s">
         <v>257</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D71" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="F71" s="6" t="s">
         <v>261</v>
       </c>
       <c r="G71" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="H71" s="7"/>
+    </row>
+    <row r="72" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A72" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="B72" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="C72" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="D72" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E72" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="F72" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="G72" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="H71" s="7"/>
+      <c r="H72" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>